--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.70764066666667</v>
+        <v>47.17718133333333</v>
       </c>
       <c r="H2">
-        <v>89.122922</v>
+        <v>141.531544</v>
       </c>
       <c r="I2">
-        <v>0.8900806065804322</v>
+        <v>0.9278465172287805</v>
       </c>
       <c r="J2">
-        <v>0.8900806065804322</v>
+        <v>0.9278465172287805</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N2">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O2">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P2">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q2">
-        <v>234.0833054347371</v>
+        <v>23.07225214270044</v>
       </c>
       <c r="R2">
-        <v>2106.749748912634</v>
+        <v>207.650269284304</v>
       </c>
       <c r="S2">
-        <v>0.88804880121633</v>
+        <v>0.8948594006879086</v>
       </c>
       <c r="T2">
-        <v>0.8880488012163301</v>
+        <v>0.8948594006879086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.70764066666667</v>
+        <v>47.17718133333333</v>
       </c>
       <c r="H3">
-        <v>89.122922</v>
+        <v>141.531544</v>
       </c>
       <c r="I3">
-        <v>0.8900806065804322</v>
+        <v>0.9278465172287805</v>
       </c>
       <c r="J3">
-        <v>0.8900806065804322</v>
+        <v>0.9278465172287805</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P3">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q3">
-        <v>0.5355693459386667</v>
+        <v>0.8505102250773332</v>
       </c>
       <c r="R3">
-        <v>4.820124113448</v>
+        <v>7.654592025696</v>
       </c>
       <c r="S3">
-        <v>0.002031805364102091</v>
+        <v>0.03298711654087189</v>
       </c>
       <c r="T3">
-        <v>0.002031805364102091</v>
+        <v>0.03298711654087189</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>4.244275</v>
       </c>
       <c r="I4">
-        <v>0.04238804991710397</v>
+        <v>0.02782443874781146</v>
       </c>
       <c r="J4">
-        <v>0.04238804991710397</v>
+        <v>0.02782443874781146</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N4">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O4">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P4">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q4">
-        <v>11.14768118996389</v>
+        <v>0.6918951082944444</v>
       </c>
       <c r="R4">
-        <v>100.329130709675</v>
+        <v>6.22705597465</v>
       </c>
       <c r="S4">
-        <v>0.04229128984104043</v>
+        <v>0.02683521479038393</v>
       </c>
       <c r="T4">
-        <v>0.04229128984104044</v>
+        <v>0.02683521479038392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.244275</v>
       </c>
       <c r="I5">
-        <v>0.04238804991710397</v>
+        <v>0.02782443874781146</v>
       </c>
       <c r="J5">
-        <v>0.04238804991710397</v>
+        <v>0.02782443874781146</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.054084</v>
       </c>
       <c r="O5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P5">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q5">
         <v>0.02550526323333333</v>
@@ -756,10 +756,10 @@
         <v>0.2295473691</v>
       </c>
       <c r="S5">
-        <v>9.676007606353392E-05</v>
+        <v>0.0009892239574275333</v>
       </c>
       <c r="T5">
-        <v>9.676007606353392E-05</v>
+        <v>0.0009892239574275331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.253949666666667</v>
       </c>
       <c r="H6">
-        <v>6.761849</v>
+        <v>6.761849000000001</v>
       </c>
       <c r="I6">
-        <v>0.06753134350246381</v>
+        <v>0.04432904402340805</v>
       </c>
       <c r="J6">
-        <v>0.0675313435024638</v>
+        <v>0.04432904402340804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.879565666666667</v>
+        <v>0.4890553333333333</v>
       </c>
       <c r="N6">
-        <v>23.638697</v>
+        <v>1.467166</v>
       </c>
       <c r="O6">
-        <v>0.9977172793687663</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="P6">
-        <v>0.9977172793687664</v>
+        <v>0.9644476581758422</v>
       </c>
       <c r="Q6">
-        <v>17.76014440786145</v>
+        <v>1.102306105548222</v>
       </c>
       <c r="R6">
-        <v>159.841299670753</v>
+        <v>9.920754949934</v>
       </c>
       <c r="S6">
-        <v>0.06737718831139582</v>
+        <v>0.04275304269754971</v>
       </c>
       <c r="T6">
-        <v>0.0673771883113958</v>
+        <v>0.0427530426975497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.253949666666667</v>
       </c>
       <c r="H7">
-        <v>6.761849</v>
+        <v>6.761849000000001</v>
       </c>
       <c r="I7">
-        <v>0.06753134350246381</v>
+        <v>0.04432904402340805</v>
       </c>
       <c r="J7">
-        <v>0.0675313435024638</v>
+        <v>0.04432904402340804</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.054084</v>
       </c>
       <c r="O7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="P7">
-        <v>0.002282720631233623</v>
+        <v>0.03555234182415776</v>
       </c>
       <c r="Q7">
         <v>0.04063420459066667</v>
@@ -880,10 +880,10 @@
         <v>0.365707841316</v>
       </c>
       <c r="S7">
-        <v>0.0001541551910679989</v>
+        <v>0.001576001325858341</v>
       </c>
       <c r="T7">
-        <v>0.0001541551910679988</v>
+        <v>0.001576001325858341</v>
       </c>
     </row>
   </sheetData>
